--- a/data/emptyapp-size.xlsx
+++ b/data/emptyapp-size.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\cross-platform-performance\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10D86E9A-DB10-45BD-ABBF-DF66B875D31D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E3C7270-1515-4C8E-AC6E-6123941C6741}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -280,7 +280,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Package Size (APK)</a:t>
+              <a:t>EmptyApp Package Size (APK)</a:t>
             </a:r>
           </a:p>
         </c:rich>

--- a/data/emptyapp-size.xlsx
+++ b/data/emptyapp-size.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\cross-platform-performance\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E3C7270-1515-4C8E-AC6E-6123941C6741}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1034B06D-13AA-4DCC-B28E-9E3CFA4A79DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58,7 +58,7 @@
     <t>UNO Platform</t>
   </si>
   <si>
-    <t>Size</t>
+    <t>Size (MBs)</t>
   </si>
 </sst>
 </file>
@@ -330,7 +330,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Size</c:v>
+                  <c:v>Size (MBs)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -378,6 +378,9 @@
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>29.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.3</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>28.2</c:v>
@@ -1166,7 +1169,7 @@
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Name" totalsRowLabel="Total" dataDxfId="2" totalsRowDxfId="1" dataCellStyle="Fecha">
       <calculatedColumnFormula>TODAY()</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Size" totalsRowFunction="sum" totalsRowDxfId="0" dataCellStyle="Normal"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Size (MBs)" totalsRowFunction="sum" totalsRowDxfId="0" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="Manufacturing Output" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1411,7 +1414,7 @@
   <dimension ref="B1:C8"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1456,7 +1459,9 @@
       <c r="B6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="5"/>
+      <c r="C6" s="5">
+        <v>16.3</v>
+      </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">

--- a/data/emptyapp-size.xlsx
+++ b/data/emptyapp-size.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\cross-platform-performance\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1034B06D-13AA-4DCC-B28E-9E3CFA4A79DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C60E00B3-C510-4028-AB92-463815AFD520}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -385,6 +385,9 @@
                 <c:pt idx="3">
                   <c:v>28.2</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>45</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1414,7 +1417,7 @@
   <dimension ref="B1:C8"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1475,7 +1478,9 @@
       <c r="B8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="5"/>
+      <c r="C8" s="5">
+        <v>45</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C4:C8">
